--- a/surveys/Hydrostatic Testing of Ductile Iron Pipe.xlsx
+++ b/surveys/Hydrostatic Testing of Ductile Iron Pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD2A21-FBE2-43C6-9FAD-897266B21986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC8D9B-422C-4F6E-9D26-65F46E1313B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1633">
   <si>
     <t>Question type</t>
   </si>
@@ -5019,9 +5019,6 @@
     <t>${testResult}='Satisfactory'</t>
   </si>
   <si>
-    <t>Signature:</t>
-  </si>
-  <si>
     <t>inspectDate</t>
   </si>
   <si>
@@ -5047,6 +5044,12 @@
   </si>
   <si>
     <t>if(${testResult} = 'Satisfactory', concat('Total of ', string(${waterSupplied}), ' gallons of water supplied to the pipe section being tested to maintain a pressure of ', string(${pValue}), ' which is less than the testing leak allowance of ', string((${lValue} * 2)), ' for 2 hours.'), concat('Total of ', string(${waterSupplied}), ' gallons of water supplied to the pipe section being tested to maintain a pressure of ', string(${pValue}), ' which is greater than the testing leak allowance of ', string((${lValue} * 2)), ' for 2 hours.'))</t>
+  </si>
+  <si>
+    <t>A project name is necessary!</t>
+  </si>
+  <si>
+    <t>${projectName}='Project'</t>
   </si>
 </sst>
 </file>
@@ -5824,7 +5827,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AN158" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:AN157" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
@@ -6217,11 +6220,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <pane xSplit="4" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6414,16 +6417,22 @@
       <c r="U4">
         <v>255</v>
       </c>
+      <c r="AK4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1631</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C5" t="s">
         <v>1625</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1626</v>
       </c>
       <c r="T5" t="s">
         <v>102</v>
@@ -6434,30 +6443,36 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>1573</v>
       </c>
       <c r="B6" t="s">
-        <v>1560</v>
+        <v>1574</v>
       </c>
       <c r="C6" t="s">
-        <v>1561</v>
+        <v>1575</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C7" t="s">
-        <v>1563</v>
-      </c>
-      <c r="T7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7">
-        <v>255</v>
+        <v>1561</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -6465,10 +6480,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C8" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="T8" t="s">
         <v>102</v>
@@ -6479,16 +6494,19 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>1593</v>
+        <v>1564</v>
       </c>
       <c r="C9" t="s">
-        <v>1594</v>
+        <v>1565</v>
       </c>
       <c r="T9" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="U9">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -6496,10 +6514,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C10" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="T10" t="s">
         <v>92</v>
@@ -6507,27 +6525,21 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1576</v>
-      </c>
-      <c r="T12" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12">
-        <v>255</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -6540,6 +6552,9 @@
       <c r="C13" t="s">
         <v>1578</v>
       </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6585,6 +6600,9 @@
       <c r="C16" t="s">
         <v>1607</v>
       </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6619,13 +6637,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C19" t="s">
         <v>1627</v>
       </c>
-      <c r="C19" t="s">
+      <c r="K19" t="s">
         <v>1628</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -6682,6 +6700,9 @@
       <c r="C24" t="s">
         <v>1614</v>
       </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6742,13 +6763,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C28" t="s">
         <v>1619</v>
       </c>
       <c r="K28" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="N28" t="s">
         <v>1621</v>
@@ -6759,40 +6780,23 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>1622</v>
       </c>
       <c r="C29" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
+        <v>1623</v>
+      </c>
+      <c r="K29" t="s">
+        <v>117</v>
       </c>
       <c r="T29" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1624</v>
-      </c>
-      <c r="K30" t="s">
-        <v>117</v>
-      </c>
-      <c r="T30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6802,35 +6806,32 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B158 B2 B4:B25 B29 B27">
+  <conditionalFormatting sqref="B30:B157 B2 B4:B25 B27">
     <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" sqref="A2:A25 A27 A29 A31:A158" xr:uid="{00B83DC4-9F8B-4A42-872B-B573412802A6}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" sqref="A27 A30:A157 A13:A25 A2:A12" xr:uid="{00B83DC4-9F8B-4A42-872B-B573412802A6}">
       <formula1>QuestionTypes</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Question names:_x000a__x000a_• Must be unique_x000a_• Must start with a letter_x000a_• Can only contain letters, numbers and underscores_x000a_• Cannot contain reserved keywords or special characters_x000a_• Cannot exceed 31 characters (ArcGIS Enterprise)" sqref="B2:B25 B27 B29 B31:B158" xr:uid="{B130F790-A4D1-4E86-9A9B-F78E6336BDC3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Question names:_x000a__x000a_• Must be unique_x000a_• Must start with a letter_x000a_• Can only contain letters, numbers and underscores_x000a_• Cannot contain reserved keywords or special characters_x000a_• Cannot exceed 31 characters (ArcGIS Enterprise)" sqref="B27 B30:B157 B13:B25 B2:B12" xr:uid="{B130F790-A4D1-4E86-9A9B-F78E6336BDC3}">
       <formula1>AND(ISERR(LEFT(B2,1)*1),LEN(B2)=LEN(SUBSTITUTE(B2," ","")),LEN(B2)&lt;32,COUNTIF(Reserved,B2)=0,SUMPRODUCT(--ISNUMBER(SEARCH(SpecialChars,B2)))=0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I25 G2:G25 I27:I28 G27:G28 G29 G31:G158 I29 I31:I158" xr:uid="{60610444-F64E-43C7-AE4B-CCB7DFE5E9B0}">
+    <dataValidation type="list" allowBlank="1" sqref="I27:I28 G27:G28 G30:G157 I30:I157 G13:G25 G2:G12 I13:I25 I2:I12" xr:uid="{60610444-F64E-43C7-AE4B-CCB7DFE5E9B0}">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S2:S25 S27:S28 S29 S31:S158" xr:uid="{6FE88E4D-92A5-4504-B837-0007283DA7F9}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S27:S28 S30:S157 S13:S25 S2:S12" xr:uid="{6FE88E4D-92A5-4504-B837-0007283DA7F9}">
       <formula1>BindTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T2:T25 T31:T158 T29" xr:uid="{3363FBF7-6EEC-46DC-AB6C-8AAD9F4EFA1F}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T30:T157 T13:T25 T2:T12" xr:uid="{3363FBF7-6EEC-46DC-AB6C-8AAD9F4EFA1F}">
       <formula1>EsriFieldTypes</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U2:U25 U27:U28 U29 U31:U158" xr:uid="{269BDFD6-4D8D-4672-9526-70DE7D0F6A14}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U27:U28 U30:U157 U13:U25 U2:U12" xr:uid="{269BDFD6-4D8D-4672-9526-70DE7D0F6A14}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F25 F27:F28" xr:uid="{00494F60-CEC7-48A8-BEAD-5BF6A7AC7D8E}">
+    <dataValidation type="list" allowBlank="1" sqref="F27:F28 F13:F25 F2:F12" xr:uid="{00494F60-CEC7-48A8-BEAD-5BF6A7AC7D8E}">
       <formula1>IF(LEFT(A2,4)="rank",appearRank,IF(LEFT(A2,8)="select_m",appearSelMulti,IF(LEFT(A2,8)="select_o",appearSelOne,IF(A2="begin group",appearBeginGrp,IF(A2="begin repeat",appearBeginRpt,INDIRECT("appear"&amp;A2))))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F31:F158" xr:uid="{4242CB5D-D0AD-4484-8603-AF1AE38DF63A}">
-      <formula1>IF(LEFT(A33,4)="rank",appearRank,IF(LEFT(A33,8)="select_m",appearSelMulti,IF(LEFT(A33,8)="select_o",appearSelOne,IF(A33="begin group",appearBeginGrp,IF(A33="begin repeat",appearBeginRpt,INDIRECT("appear"&amp;A33))))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F29" xr:uid="{1192FA34-8AFD-49A6-9EB5-77FA003CA0A4}">
+    <dataValidation type="list" allowBlank="1" sqref="F30:F157" xr:uid="{4242CB5D-D0AD-4484-8603-AF1AE38DF63A}">
       <formula1>IF(LEFT(A32,4)="rank",appearRank,IF(LEFT(A32,8)="select_m",appearSelMulti,IF(LEFT(A32,8)="select_o",appearSelOne,IF(A32="begin group",appearBeginGrp,IF(A32="begin repeat",appearBeginRpt,INDIRECT("appear"&amp;A32))))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -6977,7 +6978,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
